--- a/3º/Notas 3r.xlsx
+++ b/3º/Notas 3r.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismael/Documents/GitHub/Ingenieria-Informatica/3º/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AFCC9C-C5C6-48F6-8F2F-9F7E405C56BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055EC76B-A77F-C643-80A4-80D472A3D61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="1740" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -107,27 +107,6 @@
   <si>
     <t>TOTAL
 PRÁCTICAS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>SIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>: Parciales 75% (1r 37.5% 2nd 37.5%) + Prácticas 25% (12,5% y 12,5%) 
-NF = L + ( 1 - L/10 ) * (T+P) * 10/7,5 --&gt; Lo que te falte de Prácticas lo compensa el parcial</t>
-    </r>
   </si>
   <si>
     <t>ISW</t>
@@ -413,16 +392,26 @@
       <t>: Parcieles 70% (1r 40% y 2nd 30%) + Test clase 10% + Prácitca 20% (entrega 1 y 2, 10%)</t>
     </r>
   </si>
+  <si>
+    <t>ç</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,6 +503,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="24">
@@ -668,158 +665,164 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,16 +1061,16 @@
   </sheetPr>
   <dimension ref="A1:AF87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:AF16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="32" width="12.26953125" customWidth="1"/>
+    <col min="1" max="32" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1127,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
     </row>
-    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1183,77 +1186,77 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-    </row>
-    <row r="4" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-    </row>
-    <row r="5" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+    </row>
+    <row r="4" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+    </row>
+    <row r="5" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1309,25 +1312,33 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
     </row>
-    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="49">
+        <v>1.73</v>
+      </c>
+      <c r="C6" s="15">
+        <v>5.75</v>
+      </c>
       <c r="D6" s="8">
         <f>(B6+C6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+        <v>3.74</v>
+      </c>
+      <c r="E6" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>10</v>
+      </c>
       <c r="G6" s="8">
         <f>(E6+F6)/2</f>
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="H6" s="8">
         <f>E6*J5+(1-E6*J5/5)*B6*I5*5/3.75 + F6*J5+(1-F6*J5/5)*C6*I5*5/3.75</f>
-        <v>0</v>
+        <v>5.0155500000000002</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="16"/>
@@ -1354,103 +1365,103 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+    </row>
+    <row r="8" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+    </row>
+    <row r="9" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-    </row>
-    <row r="8" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-    </row>
-    <row r="9" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="H9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="I9" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>11</v>
@@ -1477,7 +1488,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
@@ -1521,79 +1532,79 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+    <row r="11" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="51"/>
+    </row>
+    <row r="12" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+    </row>
+    <row r="13" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-    </row>
-    <row r="12" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-    </row>
-    <row r="13" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>28</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>1</v>
@@ -1601,44 +1612,44 @@
       <c r="C13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="F13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="G13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="H13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="25" t="s">
+      <c r="J13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="K13" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="L13" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="M13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="N13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="26" t="s">
+      <c r="O13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="P13" s="26" t="s">
         <v>39</v>
-      </c>
-      <c r="P13" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="Q13" s="25" t="s">
         <v>10</v>
@@ -1661,42 +1672,64 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="28">
+        <v>4</v>
+      </c>
+      <c r="C14" s="28">
+        <v>4</v>
+      </c>
       <c r="D14" s="24">
         <f>(B14+C14)*0.7/2</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="E14" s="28">
-        <v>7</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+        <v>3.94</v>
+      </c>
+      <c r="F14" s="28">
+        <v>5.39</v>
+      </c>
+      <c r="G14" s="28">
+        <v>7.17</v>
+      </c>
+      <c r="H14" s="28">
+        <v>5</v>
+      </c>
       <c r="I14" s="24">
         <f>(E14+F14+G14+H14)*0.025</f>
-        <v>0.17500000000000002</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="J14" s="28">
-        <v>5</v>
-      </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+        <v>10</v>
+      </c>
+      <c r="K14" s="28">
+        <v>3</v>
+      </c>
+      <c r="L14" s="28">
+        <v>7</v>
+      </c>
+      <c r="M14" s="28">
+        <v>10</v>
+      </c>
+      <c r="N14" s="28">
+        <v>10</v>
+      </c>
+      <c r="O14" s="28">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P14" s="28">
+        <v>6.5</v>
+      </c>
       <c r="Q14" s="24">
         <f>SUM(J14:P14)*0.2/7</f>
-        <v>0.14285714285714285</v>
+        <v>1.6057142857142861</v>
       </c>
       <c r="R14" s="24">
         <f>D14+I14+Q14</f>
-        <v>0.31785714285714284</v>
+        <v>4.9432142857142862</v>
       </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -1713,79 +1746,79 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+    </row>
+    <row r="16" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+    </row>
+    <row r="17" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-    </row>
-    <row r="16" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
-    </row>
-    <row r="17" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>42</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>1</v>
@@ -1794,16 +1827,16 @@
         <v>2</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="F17" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="G17" s="31" t="s">
         <v>45</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>46</v>
       </c>
       <c r="H17" s="32" t="s">
         <v>11</v>
@@ -1832,25 +1865,33 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
     </row>
-    <row r="18" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="34">
+        <v>4</v>
+      </c>
+      <c r="C18" s="34">
+        <v>4</v>
+      </c>
       <c r="D18" s="30">
         <f>(B18+C18)*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+        <v>2.8</v>
+      </c>
+      <c r="E18" s="34">
+        <v>7</v>
+      </c>
+      <c r="F18" s="34">
+        <v>8.67</v>
+      </c>
       <c r="G18" s="30">
         <f>(E18+F18)*0.15</f>
-        <v>0</v>
+        <v>2.3504999999999998</v>
       </c>
       <c r="H18" s="30">
         <f>D18+G18</f>
-        <v>0</v>
+        <v>5.1504999999999992</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="12"/>
@@ -1876,79 +1917,79 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+    <row r="19" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+    </row>
+    <row r="20" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+    </row>
+    <row r="21" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="35" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-    </row>
-    <row r="20" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
-    </row>
-    <row r="21" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>48</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>1</v>
@@ -1960,10 +2001,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>7</v>
@@ -1972,7 +2013,7 @@
         <v>8</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>11</v>
@@ -1999,7 +2040,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="35" t="s">
         <v>12</v>
       </c>
@@ -2046,79 +2087,79 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
     </row>
-    <row r="23" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+    </row>
+    <row r="24" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51"/>
+    </row>
+    <row r="25" spans="1:32" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="40" t="s">
         <v>50</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-    </row>
-    <row r="24" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-    </row>
-    <row r="25" spans="1:32" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
-        <v>51</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -2151,7 +2192,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="43"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -2185,7 +2226,7 @@
       <c r="AE26" s="44"/>
       <c r="AF26" s="44"/>
     </row>
-    <row r="27" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
@@ -2219,7 +2260,7 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
     </row>
-    <row r="28" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -2253,7 +2294,7 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
     </row>
-    <row r="29" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="43"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
@@ -2282,7 +2323,7 @@
       <c r="Z29" s="43"/>
       <c r="AA29" s="43"/>
     </row>
-    <row r="30" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -2316,7 +2357,7 @@
       <c r="AE30" s="45"/>
       <c r="AF30" s="45"/>
     </row>
-    <row r="31" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
@@ -2350,7 +2391,7 @@
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
     </row>
-    <row r="32" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -2384,7 +2425,7 @@
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
     </row>
-    <row r="33" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="43"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -2413,7 +2454,7 @@
       <c r="Z33" s="43"/>
       <c r="AA33" s="43"/>
     </row>
-    <row r="34" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="43"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
@@ -2447,7 +2488,7 @@
       <c r="AE34" s="45"/>
       <c r="AF34" s="45"/>
     </row>
-    <row r="35" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
@@ -2481,7 +2522,7 @@
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
     </row>
-    <row r="36" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -2515,7 +2556,7 @@
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
     </row>
-    <row r="37" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -2544,7 +2585,7 @@
       <c r="Z37" s="43"/>
       <c r="AA37" s="43"/>
     </row>
-    <row r="38" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
@@ -2578,7 +2619,7 @@
       <c r="AE38" s="45"/>
       <c r="AF38" s="45"/>
     </row>
-    <row r="39" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
@@ -2612,7 +2653,7 @@
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
     </row>
-    <row r="40" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -2646,7 +2687,7 @@
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
     </row>
-    <row r="41" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -2675,7 +2716,7 @@
       <c r="Z41" s="43"/>
       <c r="AA41" s="43"/>
     </row>
-    <row r="42" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -2709,7 +2750,7 @@
       <c r="AE42" s="45"/>
       <c r="AF42" s="45"/>
     </row>
-    <row r="43" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -2743,7 +2784,7 @@
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
     </row>
-    <row r="44" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -2777,7 +2818,7 @@
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
     </row>
-    <row r="45" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -2811,7 +2852,7 @@
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
     </row>
-    <row r="46" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -2845,7 +2886,7 @@
       <c r="AE46" s="45"/>
       <c r="AF46" s="45"/>
     </row>
-    <row r="47" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -2874,7 +2915,7 @@
       <c r="Z47" s="43"/>
       <c r="AA47" s="43"/>
     </row>
-    <row r="48" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -2903,7 +2944,7 @@
       <c r="Z48" s="43"/>
       <c r="AA48" s="43"/>
     </row>
-    <row r="49" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="43"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
@@ -2932,7 +2973,7 @@
       <c r="Z49" s="43"/>
       <c r="AA49" s="43"/>
     </row>
-    <row r="50" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -2961,7 +3002,7 @@
       <c r="Z50" s="43"/>
       <c r="AA50" s="43"/>
     </row>
-    <row r="51" spans="1:32" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -2990,7 +3031,7 @@
       <c r="Z51" s="43"/>
       <c r="AA51" s="43"/>
     </row>
-    <row r="52" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -3019,7 +3060,7 @@
       <c r="Z52" s="43"/>
       <c r="AA52" s="43"/>
     </row>
-    <row r="53" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -3048,7 +3089,7 @@
       <c r="Z53" s="43"/>
       <c r="AA53" s="43"/>
     </row>
-    <row r="54" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -3077,7 +3118,7 @@
       <c r="Z54" s="43"/>
       <c r="AA54" s="43"/>
     </row>
-    <row r="55" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
@@ -3111,7 +3152,7 @@
       <c r="AE55" s="45"/>
       <c r="AF55" s="45"/>
     </row>
-    <row r="56" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
@@ -3140,7 +3181,7 @@
       <c r="Z56" s="43"/>
       <c r="AA56" s="43"/>
     </row>
-    <row r="57" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
@@ -3169,7 +3210,7 @@
       <c r="Z57" s="43"/>
       <c r="AA57" s="43"/>
     </row>
-    <row r="58" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -3198,7 +3239,7 @@
       <c r="Z58" s="43"/>
       <c r="AA58" s="43"/>
     </row>
-    <row r="59" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="43"/>
@@ -3227,7 +3268,7 @@
       <c r="Z59" s="43"/>
       <c r="AA59" s="43"/>
     </row>
-    <row r="60" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
@@ -3256,7 +3297,7 @@
       <c r="Z60" s="43"/>
       <c r="AA60" s="43"/>
     </row>
-    <row r="61" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -3285,7 +3326,7 @@
       <c r="Z61" s="43"/>
       <c r="AA61" s="43"/>
     </row>
-    <row r="62" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
@@ -3314,7 +3355,7 @@
       <c r="Z62" s="43"/>
       <c r="AA62" s="43"/>
     </row>
-    <row r="63" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
@@ -3343,7 +3384,7 @@
       <c r="Z63" s="43"/>
       <c r="AA63" s="43"/>
     </row>
-    <row r="64" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
@@ -3377,7 +3418,7 @@
       <c r="AE64" s="45"/>
       <c r="AF64" s="45"/>
     </row>
-    <row r="65" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
@@ -3406,7 +3447,7 @@
       <c r="Z65" s="43"/>
       <c r="AA65" s="43"/>
     </row>
-    <row r="66" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
@@ -3435,7 +3476,7 @@
       <c r="Z66" s="43"/>
       <c r="AA66" s="43"/>
     </row>
-    <row r="67" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -3469,7 +3510,7 @@
       <c r="AE67" s="45"/>
       <c r="AF67" s="45"/>
     </row>
-    <row r="68" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -3503,7 +3544,7 @@
       <c r="AE68" s="45"/>
       <c r="AF68" s="45"/>
     </row>
-    <row r="69" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -3532,7 +3573,7 @@
       <c r="Z69" s="43"/>
       <c r="AA69" s="43"/>
     </row>
-    <row r="70" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
@@ -3561,7 +3602,7 @@
       <c r="Z70" s="43"/>
       <c r="AA70" s="43"/>
     </row>
-    <row r="71" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
@@ -3595,7 +3636,7 @@
       <c r="AE71" s="46"/>
       <c r="AF71" s="46"/>
     </row>
-    <row r="72" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
@@ -3629,7 +3670,7 @@
       <c r="AE72" s="47"/>
       <c r="AF72" s="47"/>
     </row>
-    <row r="73" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
@@ -3663,7 +3704,7 @@
       <c r="AE73" s="47"/>
       <c r="AF73" s="47"/>
     </row>
-    <row r="74" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
@@ -3697,7 +3738,7 @@
       <c r="AE74" s="47"/>
       <c r="AF74" s="47"/>
     </row>
-    <row r="75" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -3731,7 +3772,7 @@
       <c r="AE75" s="47"/>
       <c r="AF75" s="47"/>
     </row>
-    <row r="76" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
@@ -3765,7 +3806,7 @@
       <c r="AE76" s="47"/>
       <c r="AF76" s="47"/>
     </row>
-    <row r="77" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -3799,7 +3840,7 @@
       <c r="AE77" s="47"/>
       <c r="AF77" s="47"/>
     </row>
-    <row r="78" spans="1:32" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
@@ -3833,7 +3874,7 @@
       <c r="AE78" s="47"/>
       <c r="AF78" s="47"/>
     </row>
-    <row r="79" spans="1:32" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="43"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
@@ -3867,7 +3908,7 @@
       <c r="AE79" s="47"/>
       <c r="AF79" s="47"/>
     </row>
-    <row r="80" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="43"/>
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
@@ -3896,7 +3937,7 @@
       <c r="Z80" s="43"/>
       <c r="AA80" s="43"/>
     </row>
-    <row r="81" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="43"/>
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
@@ -3925,7 +3966,7 @@
       <c r="Z81" s="43"/>
       <c r="AA81" s="43"/>
     </row>
-    <row r="82" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="43"/>
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
@@ -3954,7 +3995,7 @@
       <c r="Z82" s="43"/>
       <c r="AA82" s="43"/>
     </row>
-    <row r="83" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
@@ -3983,7 +4024,7 @@
       <c r="Z83" s="43"/>
       <c r="AA83" s="43"/>
     </row>
-    <row r="84" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="C84" s="43"/>
@@ -4012,7 +4053,7 @@
       <c r="Z84" s="43"/>
       <c r="AA84" s="43"/>
     </row>
-    <row r="85" spans="1:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="18" x14ac:dyDescent="0.15">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
@@ -4041,7 +4082,7 @@
       <c r="Z85" s="43"/>
       <c r="AA85" s="43"/>
     </row>
-    <row r="86" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="43"/>
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
@@ -4070,7 +4111,7 @@
       <c r="Z86" s="43"/>
       <c r="AA86" s="43"/>
     </row>
-    <row r="87" spans="1:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" ht="18" x14ac:dyDescent="0.15">
       <c r="A87" s="43"/>
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>

--- a/3º/Notas 3r.xlsx
+++ b/3º/Notas 3r.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismael/Documents/GitHub/Ingenieria-Informatica/3º/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055EC76B-A77F-C643-80A4-80D472A3D61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0F854A-5F65-244F-B08C-748AA1E6CE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="1740" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,6 +84,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TSR</t>
     </r>
@@ -93,6 +94,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: 1r Parcial 40 % (Teoría 30% + Pract 1 10%) + 2nd Parcial 40% (Teoría 30% + Pract 3 10%) + Práctica 2 20%</t>
     </r>
@@ -145,6 +147,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ISW</t>
     </r>
@@ -153,6 +156,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Parcial 40% + Casos 10% (5% y 5%) + Proyectos lab 40% (Pract 4 10% + Pract 10 30%) + Presentación proyecto 10%</t>
     </r>
@@ -206,6 +210,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AIC</t>
     </r>
@@ -214,6 +219,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Parciales 70% (1r 35% y 2nd 35%) + Prácicas 20% (Con examen en cada práctica)+ 4 Pruebas Poliformat 10% (DESCUENTAN A LOS PARCIALES)</t>
     </r>
@@ -243,6 +249,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CPA</t>
     </r>
@@ -251,6 +258,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Parciales 70% (1r 35% y 2nd 35%) + Prácticas 30% (Trabajo (memoria) 15% y Test 15%)</t>
     </r>
@@ -270,6 +278,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BDA</t>
     </r>
@@ -278,6 +287,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Parcieles 70% (1r 40% y 2nd 30%) + Test clase 10% + Prácitca 20% (entrega 1 y 2, 10%)</t>
     </r>
@@ -289,6 +299,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>TSR</t>
     </r>
@@ -297,6 +308,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: 1r Parcial 40 % (Teoría 30% + Pract 1 10%) + 2nd Parcial 40% (Teoría 30% + Pract 3 10%) + Práctica 2 20% 
 </t>
@@ -307,6 +319,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SIN</t>
     </r>
@@ -315,6 +328,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Parciales 75% (1r 37.5% 2nd 37.5%) + Prácticas 25% (12,5% y 12,5%)
          NF1 = A1 + ( 1 - A1/5 ) * A2 * 5/3,75 --&gt; Lo que te falte de Prácticas lo compensa el parcial
@@ -326,6 +340,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ISW</t>
     </r>
@@ -334,6 +349,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Parcial 40% + Casos 10% (5% y 5%) + Proyectos lab 40% (Pract 4 10% + Pract 10 30%) + Presentación proyecto 10% 
 </t>
@@ -344,6 +360,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>AIC</t>
     </r>
@@ -352,6 +369,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Parciales 70% (1r 35% y 2nd 35%) + Prácicas 20% (Con examen en cada práctica)+ 4 Pruebas Poliformat 10% (DESCUENTAN A LOS PARCIALES)
 </t>
@@ -362,6 +380,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>CPA</t>
     </r>
@@ -370,6 +389,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Parciales 70% (1r 35% y 2nd 35%) + Prácticas 30% (Trabajo (memoria) 15% y Test 15%)
 </t>
@@ -380,6 +400,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>BDA</t>
     </r>
@@ -388,6 +409,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Parcieles 70% (1r 40% y 2nd 30%) + Test clase 10% + Prácitca 20% (entrega 1 y 2, 10%)</t>
     </r>
@@ -419,12 +441,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,6 +456,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -439,12 +464,14 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,44 +479,52 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -497,12 +532,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1062,7 +1099,7 @@
   <dimension ref="A1:AF87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:AF16"/>
+      <selection activeCell="A7" sqref="A7:AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1317,14 +1354,14 @@
         <v>12</v>
       </c>
       <c r="B6" s="49">
-        <v>1.73</v>
+        <v>4.7</v>
       </c>
       <c r="C6" s="15">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="D6" s="8">
         <f>(B6+C6)/2</f>
-        <v>3.74</v>
+        <v>3.6</v>
       </c>
       <c r="E6" s="15">
         <v>7.2</v>
@@ -1338,7 +1375,7 @@
       </c>
       <c r="H6" s="8">
         <f>E6*J5+(1-E6*J5/5)*B6*I5*5/3.75 + F6*J5+(1-F6*J5/5)*C6*I5*5/3.75</f>
-        <v>5.0155500000000002</v>
+        <v>5.0145</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="16"/>

--- a/3º/Notas 3r.xlsx
+++ b/3º/Notas 3r.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismael/Documents/GitHub/Ingenieria-Informatica/3º/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0F854A-5F65-244F-B08C-748AA1E6CE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E265AB5-EC0A-D94E-AC75-6A6F3BA49E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="1740" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,8 +1098,8 @@
   </sheetPr>
   <dimension ref="A1:AF87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:AF8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1168,40 +1168,46 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="6">
+        <v>7.91</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4.8</v>
+      </c>
       <c r="D2" s="2">
         <f>B2+C2</f>
-        <v>0</v>
+        <v>12.71</v>
       </c>
       <c r="E2" s="6">
         <f t="shared" ref="E2:F2" si="0">B2*0.3</f>
-        <v>0</v>
+        <v>2.3729999999999998</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="G2" s="2">
         <f>F2+E2</f>
-        <v>0</v>
+        <v>3.8129999999999997</v>
       </c>
       <c r="H2" s="6">
         <f>B2*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="6"/>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.6</v>
+      </c>
       <c r="J2" s="6">
         <f>C2*0.1</f>
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="K2" s="2">
         <f>H2+I2+J2</f>
-        <v>0</v>
+        <v>1.871</v>
       </c>
       <c r="L2" s="2">
         <f>G2+K2</f>
-        <v>0</v>
+        <v>5.6839999999999993</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -1717,11 +1723,11 @@
         <v>4</v>
       </c>
       <c r="C14" s="28">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D14" s="24">
         <f>(B14+C14)*0.7/2</f>
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="E14" s="28">
         <v>3.94</v>
@@ -1766,7 +1772,7 @@
       </c>
       <c r="R14" s="24">
         <f>D14+I14+Q14</f>
-        <v>4.9432142857142862</v>
+        <v>4.663214285714286</v>
       </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
